--- a/file_config_archive.xlsx
+++ b/file_config_archive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niwrad\Desktop\archive_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25C876C-D3B7-437A-B615-5DC4DF1DB598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E20FD2-658D-49AD-BD45-173AC710A2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,97 +310,97 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t>bac_pro</t>
-  </si>
-  <si>
-    <t>Mohamed Ali</t>
-  </si>
-  <si>
-    <t>Fatima Ahmed</t>
+    <t>bacpro</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed</t>
+  </si>
+  <si>
+    <t>Fatima Ali</t>
+  </si>
+  <si>
+    <t>Ahmed Said</t>
+  </si>
+  <si>
+    <t>Amina Mohamed</t>
+  </si>
+  <si>
+    <t>Said Salim</t>
+  </si>
+  <si>
+    <t>Halima Abubakar</t>
+  </si>
+  <si>
+    <t>Ali Hassan</t>
+  </si>
+  <si>
+    <t>Zainab Ahmed</t>
+  </si>
+  <si>
+    <t>Omar Ali</t>
+  </si>
+  <si>
+    <t>Mariam Ibrahim</t>
+  </si>
+  <si>
+    <t>Ibrahim Hassan</t>
+  </si>
+  <si>
+    <t>Hawa Aboudou</t>
+  </si>
+  <si>
+    <t>Salim Mohamed</t>
+  </si>
+  <si>
+    <t>Nasra Ahmed</t>
+  </si>
+  <si>
+    <t>Abdallah Moustapha</t>
+  </si>
+  <si>
+    <t>Aisha Said</t>
   </si>
   <si>
     <t>Said Omar</t>
   </si>
   <si>
-    <t>Amina Bacar</t>
-  </si>
-  <si>
-    <t>Ahmed Abdallah</t>
-  </si>
-  <si>
-    <t>Halima Mohamed</t>
-  </si>
-  <si>
-    <t>Youssouf Hamid</t>
-  </si>
-  <si>
-    <t>Mariam Soilihi</t>
-  </si>
-  <si>
-    <t>Ibrahim Madi</t>
-  </si>
-  <si>
-    <t>Khadija Combo</t>
-  </si>
-  <si>
-    <t>Hassan Ali</t>
-  </si>
-  <si>
-    <t>Safia Abdou</t>
-  </si>
-  <si>
-    <t>Ali Mohamed</t>
-  </si>
-  <si>
-    <t>Zainab Bacar</t>
-  </si>
-  <si>
-    <t>Salim Djoumoi</t>
-  </si>
-  <si>
-    <t>Zahra Soule</t>
-  </si>
-  <si>
-    <t>Fahad Ibrahim</t>
-  </si>
-  <si>
-    <t>Riziki Salim</t>
-  </si>
-  <si>
-    <t>Fathia Abdou</t>
-  </si>
-  <si>
-    <t>Moustoifa Soef</t>
-  </si>
-  <si>
-    <t>Saida Madi</t>
-  </si>
-  <si>
-    <t>Kassim Mohamed</t>
-  </si>
-  <si>
-    <t>Aicha Combo</t>
-  </si>
-  <si>
-    <t>Salim Saïd</t>
-  </si>
-  <si>
-    <t>Nassima Ibrahim</t>
-  </si>
-  <si>
-    <t>Madi Ahmed</t>
-  </si>
-  <si>
-    <t>Fathima Toihiri</t>
-  </si>
-  <si>
-    <t>Hamidou Moustoifa</t>
-  </si>
-  <si>
-    <t>Mariama Abdou</t>
-  </si>
-  <si>
-    <t>Saidati Soilih</t>
+    <t>Khadija Mohamed</t>
+  </si>
+  <si>
+    <t>Ahmed Ibrahim</t>
+  </si>
+  <si>
+    <t>Mouniratou Ali</t>
+  </si>
+  <si>
+    <t>Hamidou Ahmed</t>
+  </si>
+  <si>
+    <t>Rukia Salim</t>
+  </si>
+  <si>
+    <t>Salim Bakari</t>
+  </si>
+  <si>
+    <t>Zara Ali</t>
+  </si>
+  <si>
+    <t>Farid Mohamed</t>
+  </si>
+  <si>
+    <t>Amina Omar</t>
+  </si>
+  <si>
+    <t>Issa Aboudou</t>
+  </si>
+  <si>
+    <t>Fathia Ibrahim</t>
+  </si>
+  <si>
+    <t>Ali Moustapha</t>
+  </si>
+  <si>
+    <t>Halima Ahmed</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -854,7 +854,7 @@
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
